--- a/Proyecto Integrador/Propuesta 1/BBDD_Hospitalización.xlsx
+++ b/Proyecto Integrador/Propuesta 1/BBDD_Hospitalización.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanSe ParraS\Desktop\ESCRITORIO M\IA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karla Sofia\Documents\DataScience Henry\M6\Proyecto Integrador\Propuesta 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B60DB123-3962-4E31-B0C1-DD51885E351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A83831-ED56-427B-AAB1-CB33B2614E02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B869544-7E33-4CF0-BE24-001037B37AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -661,14 +661,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T571"/>
+  <dimension ref="A1:T569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I569"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -691,7 +691,7 @@
     <col min="19" max="20" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>53</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>56</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15">
+    <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>57</v>
       </c>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>56</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>55</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>55</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>53</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="40.5">
+    <row r="9" spans="1:20" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>67</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>69</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>54</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="26.25" customHeight="1">
+    <row r="13" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>68</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>69</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>65</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>62</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>65</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27">
+    <row r="19" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>71</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>65</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>62</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>64</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27">
+    <row r="23" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>71</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27">
+    <row r="24" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>69</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="27">
+    <row r="25" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>69</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="27">
+    <row r="26" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>77</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="27">
+    <row r="27" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>75</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="27">
+    <row r="28" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>75</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="27">
+    <row r="29" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>77</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="27">
+    <row r="30" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>75</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="27">
+    <row r="31" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>77</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>73</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27">
+    <row r="33" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>63</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>73</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="27">
+    <row r="35" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>63</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="27">
+    <row r="36" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>53</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="27">
+    <row r="37" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>75</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="27">
+    <row r="38" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>62</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>69</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="27">
+    <row r="40" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>71</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>66</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="27">
+    <row r="42" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>53</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27">
+    <row r="43" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>75</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27">
+    <row r="44" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>62</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>69</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27">
+    <row r="46" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>71</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>66</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="27" hidden="1">
+    <row r="48" spans="1:20" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>84</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" hidden="1">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>68</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="27" hidden="1">
+    <row r="50" spans="1:20" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>84</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" hidden="1">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>68</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="17" customFormat="1" ht="64.5" customHeight="1">
+    <row r="52" spans="1:20" s="17" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>64</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>62</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="27">
+    <row r="54" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>64</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>62</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="27">
+    <row r="56" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>64</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>42</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="27">
+    <row r="58" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>42</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>68</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>61</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>47</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="27">
+    <row r="62" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>47</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>48</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>49</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>65</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="27">
+    <row r="66" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>81</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>52</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>61</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>52</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="27">
+    <row r="70" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>52</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="27">
+    <row r="71" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>53</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="27">
+    <row r="72" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>53</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>63</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>69</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>54</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="27">
+    <row r="77" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>74</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="27">
+    <row r="78" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>57</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="27">
+    <row r="79" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>54</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="27">
+    <row r="80" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>55</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>56</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="27">
+    <row r="82" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>70</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>56</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>68</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>57</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>70</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>57</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>52</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="27">
+    <row r="89" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>58</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>64</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>56</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>58</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>58</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>58</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>56</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>58</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="27">
+    <row r="97" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>64</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>59</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>71</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>60</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="27">
+    <row r="101" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>70</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="27">
+    <row r="102" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>74</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>62</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>63</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>60</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>59</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="27">
+    <row r="107" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>60</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="27">
+    <row r="108" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>65</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="27">
+    <row r="109" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>61</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>61</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>61</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="27">
+    <row r="112" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>68</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="27">
+    <row r="113" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>68</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>61</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>61</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27">
+    <row r="116" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>64</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>56</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27">
+    <row r="118" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>55</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>62</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>62</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>62</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>62</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="27">
+    <row r="123" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>62</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="27">
+    <row r="124" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>68</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>54</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>63</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>58</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>74</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>63</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>69</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>63</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>63</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>63</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>63</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="27">
+    <row r="135" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>63</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>64</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>61</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>64</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>64</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>64</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>71</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="27">
+    <row r="142" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>64</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="27">
+    <row r="143" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>64</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="27">
+    <row r="144" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>75</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="27">
+    <row r="145" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>64</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>50</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>61</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>58</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>65</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>59</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="27">
+    <row r="151" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>66</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>66</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>66</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>66</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>54</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="27">
+    <row r="156" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>66</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="27">
+    <row r="157" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>58</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>66</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="27">
+    <row r="159" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>69</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>74</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="55.5" customHeight="1">
+    <row r="161" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>42</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="49.5" customHeight="1">
+    <row r="162" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>58</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>143</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>67</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="52.5" customHeight="1">
+    <row r="165" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>65</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="27">
+    <row r="166" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>50</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="40.5" customHeight="1">
+    <row r="167" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>65</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>68</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>68</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>70</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>68</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>69</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="27">
+    <row r="173" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>69</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>61</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>66</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="27">
+    <row r="176" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>69</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="27">
+    <row r="177" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>69</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="27">
+    <row r="178" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>69</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="27">
+    <row r="179" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>64</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>69</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>69</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>69</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>151</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27">
+    <row r="184" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>70</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="27">
+    <row r="185" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>64</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="27">
+    <row r="186" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>70</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>76</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="27">
+    <row r="188" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>63</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="27">
+    <row r="189" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>78</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="27">
+    <row r="190" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>46</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27">
+    <row r="191" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>71</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27">
+    <row r="192" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>71</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27">
+    <row r="193" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>71</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="27">
+    <row r="194" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>71</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="27">
+    <row r="195" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>55</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>71</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="15">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>71</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="15">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>71</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="15">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>61</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27">
+    <row r="200" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>53</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="27">
+    <row r="201" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>65</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="27">
+    <row r="202" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>73</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="15">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>54</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="27">
+    <row r="204" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>73</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="27">
+    <row r="205" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>73</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="15">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>68</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="15">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>73</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="15">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>73</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="27">
+    <row r="209" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>58</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="40.5">
+    <row r="210" spans="1:20" ht="39" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>81</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="15">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>74</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="15">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>74</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>51</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="15">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>63</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27">
+    <row r="215" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>75</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="27">
+    <row r="216" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>75</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="27">
+    <row r="217" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>76</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="15">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>64</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27">
+    <row r="219" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>62</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="15">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>78</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27">
+    <row r="221" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>79</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="15">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>79</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="15">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>57</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="27">
+    <row r="224" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>81</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27">
+    <row r="225" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>81</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="15">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>39</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27">
+    <row r="227" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>47</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27">
+    <row r="228" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>67</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="15">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>62</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="15">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>63</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27">
+    <row r="231" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>60</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27">
+    <row r="232" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>69</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="15">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>59</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="15">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>71</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="15">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>54</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27">
+    <row r="236" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>60</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="15">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>55</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="15">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>60</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27">
+    <row r="239" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>72</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="15">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>56</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27">
+    <row r="241" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>60</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27">
+    <row r="242" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>70</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27">
+    <row r="243" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>63</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27">
+    <row r="244" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>57</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="15">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>59</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27">
+    <row r="246" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>57</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="15">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>58</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="15">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>58</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>58</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="15">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>57</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="15">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>59</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="27">
+    <row r="252" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>62</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="15">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>59</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="15">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>59</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27">
+    <row r="255" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>67</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27">
+    <row r="256" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>60</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="15">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>60</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="15">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>60</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27">
+    <row r="259" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>55</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="15">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>63</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="15">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>52</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="15">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="12">
         <v>69</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="27">
+    <row r="263" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>69</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="15">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>62</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="27">
+    <row r="265" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A265" s="12">
         <v>57</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="15">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="12">
         <v>62</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="27">
+    <row r="267" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A267" s="12">
         <v>69</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="15">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="12">
         <v>60</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="15">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="12">
         <v>51</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="27">
+    <row r="270" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A270" s="12">
         <v>67</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="15">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="12">
         <v>54</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="27">
+    <row r="272" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A272" s="12">
         <v>51</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="27">
+    <row r="273" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A273" s="12">
         <v>73</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="27">
+    <row r="274" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A274" s="12">
         <v>63</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="15">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="12">
         <v>68</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="27">
+    <row r="276" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A276" s="12">
         <v>80</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="27">
+    <row r="277" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A277" s="12">
         <v>66</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="15">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="12">
         <v>61</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="15">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="12">
         <v>65</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="15">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="12">
         <v>65</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="15">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="12">
         <v>65</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="15">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="12">
         <v>67</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="27">
+    <row r="283" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A283" s="12">
         <v>66</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="27">
+    <row r="284" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A284" s="12">
         <v>57</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="15">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="12">
         <v>61</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="286" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A286" s="12">
         <v>68</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="287" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12">
         <v>66</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="288" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A288" s="12">
         <v>66</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="289" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A289" s="12">
         <v>67</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="290" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12">
         <v>67</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="291" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12">
         <v>67</v>
       </c>
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="292" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="12">
         <v>67</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="293" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A293" s="12">
         <v>67</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="294" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12">
         <v>53</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="295" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12">
         <v>66</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:20" s="8" customFormat="1" ht="15">
+    <row r="296" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12">
         <v>68</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="297" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A297" s="12">
         <v>66</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="298" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A298" s="12">
         <v>71</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="299" spans="1:20" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A299" s="12">
         <v>59</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="15">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="12">
         <v>67</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="15">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="12">
         <v>69</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="15">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="12">
         <v>59</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="27">
+    <row r="303" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A303" s="12">
         <v>59</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="15">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="12">
         <v>70</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="15">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="12">
         <v>57</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="27">
+    <row r="306" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A306" s="12">
         <v>75</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="15">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="12">
         <v>78</v>
       </c>
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="27">
+    <row r="308" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A308" s="12">
         <v>67</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="27">
+    <row r="309" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A309" s="12">
         <v>64</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="27">
+    <row r="310" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A310" s="12">
         <v>63</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="15">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="12">
         <v>42</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="27">
+    <row r="312" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A312" s="12">
         <v>42</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="15">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="12">
         <v>69</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="15">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="12">
         <v>61</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="15">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="12">
         <v>46</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27">
+    <row r="316" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A316" s="12">
         <v>49</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="15">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="12">
         <v>48</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="15">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="12">
         <v>45</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="15">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="12">
         <v>66</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27">
+    <row r="320" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A320" s="12">
         <v>82</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="15">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="12">
         <v>53</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="15">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="12">
         <v>60</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="15">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="12">
         <v>52</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27">
+    <row r="324" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A324" s="12">
         <v>52</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27">
+    <row r="325" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A325" s="12">
         <v>53</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27">
+    <row r="326" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A326" s="12">
         <v>67</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="15">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="12">
         <v>53</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="15">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="12">
         <v>64</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="15">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="12">
         <v>69</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="15">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="12">
         <v>55</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="27">
+    <row r="331" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A331" s="12">
         <v>75</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="27">
+    <row r="332" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A332" s="12">
         <v>55</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="27">
+    <row r="333" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A333" s="12">
         <v>54</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="27">
+    <row r="334" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A334" s="12">
         <v>55</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="15">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="12">
         <v>59</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="27">
+    <row r="336" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A336" s="12">
         <v>70</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="15">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="12">
         <v>56</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="15">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="12">
         <v>68</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="15">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="12">
         <v>57</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="15">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="12">
         <v>71</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="15">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="12">
         <v>57</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="15">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="12">
         <v>52</v>
       </c>
@@ -21847,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="27">
+    <row r="343" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A343" s="12">
         <v>59</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="15">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="12">
         <v>64</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="15">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="12">
         <v>55</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="15">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="12">
         <v>58</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="15">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="12">
         <v>59</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="15">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="12">
         <v>58</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="15">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="12">
         <v>56</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="15">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="12">
         <v>58</v>
       </c>
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="27">
+    <row r="351" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A351" s="12">
         <v>65</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="15">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="12">
         <v>69</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="15">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="12">
         <v>59</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="15">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="12">
         <v>71</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="15">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="12">
         <v>60</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="27">
+    <row r="356" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A356" s="12">
         <v>71</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="27">
+    <row r="357" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A357" s="12">
         <v>74</v>
       </c>
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="15">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="12">
         <v>62</v>
       </c>
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="15">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="12">
         <v>63</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="15">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="12">
         <v>60</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="15">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="12">
         <v>59</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="27">
+    <row r="362" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A362" s="12">
         <v>62</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="27">
+    <row r="363" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A363" s="12">
         <v>65</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="27">
+    <row r="364" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A364" s="12">
         <v>60</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="15">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="12">
         <v>61</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="15">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="12">
         <v>61</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="27">
+    <row r="367" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A367" s="12">
         <v>68</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="27">
+    <row r="368" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A368" s="12">
         <v>67</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="15">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="12">
         <v>61</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="15">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="12">
         <v>61</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="27">
+    <row r="371" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A371" s="12">
         <v>64</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="15">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="12">
         <v>56</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="27">
+    <row r="373" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A373" s="12">
         <v>58</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="15">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="12">
         <v>62</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="15">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="12">
         <v>62</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="15">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="12">
         <v>68</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="15">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="12">
         <v>62</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="27">
+    <row r="378" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A378" s="12">
         <v>62</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="27">
+    <row r="379" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A379" s="12">
         <v>68</v>
       </c>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="15">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="12">
         <v>51</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="15">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="12">
         <v>63</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="15">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="12">
         <v>58</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="15">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="12">
         <v>77</v>
       </c>
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:20" ht="15">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="12">
         <v>63</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:20" ht="15">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="12">
         <v>69</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:20" ht="15">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="12">
         <v>68</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:20" ht="15">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="12">
         <v>63</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:20" ht="15">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="12">
         <v>63</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:20" ht="15">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="12">
         <v>63</v>
       </c>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:20" ht="27">
+    <row r="390" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A390" s="12">
         <v>61</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:20" ht="15">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="12">
         <v>64</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:20" ht="15">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="12">
         <v>61</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="15">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="12">
         <v>64</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:20" ht="15">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="12">
         <v>64</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:20" ht="15">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="12">
         <v>64</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:20" ht="15">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="12">
         <v>71</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:20" ht="27">
+    <row r="397" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A397" s="12">
         <v>64</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:20" ht="27">
+    <row r="398" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A398" s="12">
         <v>64</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:20" ht="27">
+    <row r="399" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A399" s="12">
         <v>74</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:20" ht="27">
+    <row r="400" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A400" s="12">
         <v>63</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:20" ht="15">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="12">
         <v>51</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:20" ht="15">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="12">
         <v>61</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:20" ht="15">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="12">
         <v>58</v>
       </c>
@@ -25629,7 +25629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:20" ht="15">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="12">
         <v>65</v>
       </c>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:20" ht="15">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="12">
         <v>59</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:20" ht="27">
+    <row r="406" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A406" s="12">
         <v>68</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:20" ht="15">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="12">
         <v>66</v>
       </c>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:20" ht="15">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="12">
         <v>66</v>
       </c>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:20" ht="15">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="12">
         <v>66</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:20" ht="15">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="12">
         <v>54</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:20" ht="27">
+    <row r="411" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A411" s="12">
         <v>66</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:20" ht="27">
+    <row r="412" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A412" s="12">
         <v>58</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:20" ht="15">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="12">
         <v>66</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:20" ht="27">
+    <row r="414" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A414" s="12">
         <v>69</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:20" ht="15">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="12">
         <v>74</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:20" ht="15">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="12">
         <v>42</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:20" ht="15">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="12">
         <v>58</v>
       </c>
@@ -26497,7 +26497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:20" ht="15">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="12">
         <v>63</v>
       </c>
@@ -26559,7 +26559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:20" ht="15">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="12">
         <v>67</v>
       </c>
@@ -26621,7 +26621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:20" ht="27">
+    <row r="420" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A420" s="12">
         <v>67</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:20" ht="15">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="12">
         <v>65</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:20" ht="27">
+    <row r="422" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A422" s="12">
         <v>50</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:20" ht="27">
+    <row r="423" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A423" s="12">
         <v>65</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:20" ht="15">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="12">
         <v>68</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:20" ht="15">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="12">
         <v>68</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:20" ht="15">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="12">
         <v>70</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:20" ht="15">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="12">
         <v>68</v>
       </c>
@@ -27117,7 +27117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:20" ht="15">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="12">
         <v>59</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:20" ht="15">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="12">
         <v>69</v>
       </c>
@@ -27241,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:20" ht="27">
+    <row r="430" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A430" s="12">
         <v>68</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:20" ht="15">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="12">
         <v>61</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:20" ht="15">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="12">
         <v>66</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:20" ht="27">
+    <row r="433" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A433" s="12">
         <v>69</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:20" ht="27">
+    <row r="434" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A434" s="12">
         <v>69</v>
       </c>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:20" ht="27">
+    <row r="435" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A435" s="12">
         <v>69</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:20" ht="27">
+    <row r="436" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A436" s="12">
         <v>66</v>
       </c>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:20" ht="15">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="12">
         <v>69</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:20" ht="15">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="12">
         <v>69</v>
       </c>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:20" ht="15">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="12">
         <v>69</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:20" ht="15">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="12">
         <v>61</v>
       </c>
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:20" ht="27">
+    <row r="441" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A441" s="12">
         <v>72</v>
       </c>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:20" ht="27">
+    <row r="442" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A442" s="12">
         <v>64</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:20" ht="27">
+    <row r="443" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A443" s="12">
         <v>70</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:20" ht="15">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="12">
         <v>78</v>
       </c>
@@ -28171,7 +28171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:20" ht="27">
+    <row r="445" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A445" s="12">
         <v>63</v>
       </c>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:20" ht="27">
+    <row r="446" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A446" s="12">
         <v>79</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:20" ht="27">
+    <row r="447" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A447" s="12">
         <v>45</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:20" ht="27">
+    <row r="448" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A448" s="12">
         <v>71</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:20" ht="27">
+    <row r="449" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A449" s="12">
         <v>71</v>
       </c>
@@ -28481,7 +28481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:20" ht="27">
+    <row r="450" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>71</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:20" ht="27">
+    <row r="451" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>71</v>
       </c>
@@ -28605,7 +28605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:20" ht="27">
+    <row r="452" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>55</v>
       </c>
@@ -28667,7 +28667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:20" ht="15">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>71</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:20" ht="15">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>71</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:20" ht="15">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>72</v>
       </c>
@@ -28853,7 +28853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:20" ht="15">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="12">
         <v>61</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:20" ht="27">
+    <row r="457" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A457" s="12">
         <v>53</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:20" ht="27">
+    <row r="458" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A458" s="12">
         <v>65</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:20" ht="27">
+    <row r="459" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>73</v>
       </c>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:20" ht="15">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="12">
         <v>54</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:20" ht="27">
+    <row r="461" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A461" s="12">
         <v>73</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:20" ht="27">
+    <row r="462" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>73</v>
       </c>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:20" ht="15">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="12">
         <v>68</v>
       </c>
@@ -29349,7 +29349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:20" ht="15">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="12">
         <v>73</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:20" ht="15">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="12">
         <v>73</v>
       </c>
@@ -29473,7 +29473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:20" ht="27">
+    <row r="466" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A466" s="12">
         <v>58</v>
       </c>
@@ -29535,7 +29535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:20" ht="40.5">
+    <row r="467" spans="1:20" ht="39" x14ac:dyDescent="0.25">
       <c r="A467" s="12">
         <v>81</v>
       </c>
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:20" ht="15">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="12">
         <v>74</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:20" ht="15">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="12">
         <v>74</v>
       </c>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:20" ht="15">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="12">
         <v>51</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:20" ht="15">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>63</v>
       </c>
@@ -29845,7 +29845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:20" ht="27">
+    <row r="472" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>77</v>
       </c>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:20" ht="27">
+    <row r="473" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A473" s="12">
         <v>75</v>
       </c>
@@ -29969,7 +29969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:20" ht="27">
+    <row r="474" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>76</v>
       </c>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:20" ht="15">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>64</v>
       </c>
@@ -30093,7 +30093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:20" ht="27">
+    <row r="476" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>62</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:20" ht="15">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="12">
         <v>78</v>
       </c>
@@ -30217,7 +30217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:20" ht="27">
+    <row r="478" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>79</v>
       </c>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:20" ht="15">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>81</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:20" ht="15">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>57</v>
       </c>
@@ -30403,7 +30403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:20" ht="27">
+    <row r="481" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>81</v>
       </c>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:20" ht="27">
+    <row r="482" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A482" s="12">
         <v>82</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:20" ht="15">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="12">
         <v>39</v>
       </c>
@@ -30589,7 +30589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:20" ht="27">
+    <row r="484" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A484" s="12">
         <v>47</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:20" ht="27">
+    <row r="485" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>67</v>
       </c>
@@ -30713,7 +30713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:20" ht="15">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>62</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:20" ht="15">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>63</v>
       </c>
@@ -30837,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:20" ht="27">
+    <row r="488" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A488" s="12">
         <v>62</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:20" ht="27">
+    <row r="489" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A489" s="12">
         <v>69</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:20" ht="15">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="12">
         <v>59</v>
       </c>
@@ -31023,7 +31023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:20" ht="15">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>71</v>
       </c>
@@ -31085,7 +31085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:20" ht="15">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>49</v>
       </c>
@@ -31147,7 +31147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:20" ht="27">
+    <row r="493" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A493" s="12">
         <v>60</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:20" ht="15">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="12">
         <v>55</v>
       </c>
@@ -31271,7 +31271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:20" ht="15">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>60</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:20" ht="27">
+    <row r="496" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>72</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:20" ht="15">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>56</v>
       </c>
@@ -31457,7 +31457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:20" ht="27">
+    <row r="498" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A498" s="12">
         <v>60</v>
       </c>
@@ -31519,7 +31519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:20" ht="27">
+    <row r="499" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A499" s="12">
         <v>70</v>
       </c>
@@ -31581,7 +31581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:20" ht="27">
+    <row r="500" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>63</v>
       </c>
@@ -31643,7 +31643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:20" ht="27">
+    <row r="501" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>57</v>
       </c>
@@ -31705,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:20" ht="15">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>59</v>
       </c>
@@ -31767,7 +31767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:20" ht="27">
+    <row r="503" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>59</v>
       </c>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:20" ht="15">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>58</v>
       </c>
@@ -31891,7 +31891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:20" ht="15">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>58</v>
       </c>
@@ -31953,7 +31953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:20" ht="15">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>58</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:20" ht="15">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>57</v>
       </c>
@@ -32077,7 +32077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:20" ht="15">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>59</v>
       </c>
@@ -32139,7 +32139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:20" ht="27">
+    <row r="509" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>62</v>
       </c>
@@ -32201,7 +32201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:20" ht="15">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>59</v>
       </c>
@@ -32263,7 +32263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:20" ht="15">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>59</v>
       </c>
@@ -32325,7 +32325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:20" ht="27">
+    <row r="512" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>67</v>
       </c>
@@ -32387,7 +32387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:20" ht="27">
+    <row r="513" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>60</v>
       </c>
@@ -32449,7 +32449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:20" ht="15">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>60</v>
       </c>
@@ -32511,7 +32511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:20" ht="15">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>60</v>
       </c>
@@ -32573,7 +32573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:20" ht="27">
+    <row r="516" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>56</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:20" ht="15">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>63</v>
       </c>
@@ -32697,7 +32697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:20" ht="15">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>52</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:20" ht="15">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>69</v>
       </c>
@@ -32821,7 +32821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:20" ht="27">
+    <row r="520" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>68</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:20" ht="15">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>62</v>
       </c>
@@ -32945,7 +32945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:20" ht="27">
+    <row r="522" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>57</v>
       </c>
@@ -33007,7 +33007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:20" ht="15">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>64</v>
       </c>
@@ -33069,7 +33069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:20" ht="27">
+    <row r="524" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>69</v>
       </c>
@@ -33131,7 +33131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:20" ht="15">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>62</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:20" ht="15">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>50</v>
       </c>
@@ -33255,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:20" ht="27">
+    <row r="527" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>67</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:20" ht="15">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>54</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:20" ht="27">
+    <row r="529" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>50</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:20" ht="27">
+    <row r="530" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>73</v>
       </c>
@@ -33503,7 +33503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:20" ht="27">
+    <row r="531" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>63</v>
       </c>
@@ -33565,7 +33565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:20" ht="15">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>68</v>
       </c>
@@ -33627,7 +33627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:20" ht="27">
+    <row r="533" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>84</v>
       </c>
@@ -33689,7 +33689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:20" ht="27">
+    <row r="534" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>66</v>
       </c>
@@ -33751,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:20" ht="15">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>61</v>
       </c>
@@ -33813,7 +33813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:20" ht="15">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>65</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:20" ht="15">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>65</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:20" ht="15">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>65</v>
       </c>
@@ -33999,7 +33999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:20" ht="15">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>67</v>
       </c>
@@ -34061,7 +34061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:20" ht="27">
+    <row r="540" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>66</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:20" ht="27">
+    <row r="541" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>57</v>
       </c>
@@ -34185,7 +34185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:20" ht="15">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>61</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:20" ht="27">
+    <row r="543" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>68</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:20" ht="15">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>66</v>
       </c>
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:20" ht="27">
+    <row r="545" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>66</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:20" ht="27">
+    <row r="546" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>67</v>
       </c>
@@ -34495,7 +34495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:20" ht="15">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>67</v>
       </c>
@@ -34557,7 +34557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:20" ht="15">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>67</v>
       </c>
@@ -34619,7 +34619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:20" ht="15">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>67</v>
       </c>
@@ -34681,7 +34681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:20" ht="27">
+    <row r="550" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>67</v>
       </c>
@@ -34743,7 +34743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:20" ht="15">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>53</v>
       </c>
@@ -34805,7 +34805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:20" ht="15">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>66</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:20" ht="15">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>68</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:20" ht="27">
+    <row r="554" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>66</v>
       </c>
@@ -34991,7 +34991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:20" ht="27">
+    <row r="555" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>71</v>
       </c>
@@ -35053,7 +35053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:20" ht="27">
+    <row r="556" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>59</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:20" ht="15">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>67</v>
       </c>
@@ -35177,7 +35177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:20" ht="15">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>69</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:20" ht="15">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>59</v>
       </c>
@@ -35301,7 +35301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:20" ht="27">
+    <row r="560" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>55</v>
       </c>
@@ -35363,7 +35363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:20" ht="15">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A561" s="12">
         <v>70</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:20" ht="15">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>57</v>
       </c>
@@ -35487,7 +35487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:20" ht="27">
+    <row r="563" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A563" s="12">
         <v>75</v>
       </c>
@@ -35549,7 +35549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:20" ht="15">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
         <v>78</v>
       </c>
@@ -35611,7 +35611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:20" ht="27">
+    <row r="565" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A565" s="12">
         <v>67</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:20" ht="27">
+    <row r="566" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A566" s="12">
         <v>64</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:20" ht="15" hidden="1">
+    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="12">
         <v>69</v>
       </c>
@@ -35791,7 +35791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:20" ht="27">
+    <row r="568" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A568" s="12">
         <v>67</v>
       </c>
@@ -35849,7 +35849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:20" ht="15">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" s="12">
         <v>59</v>
       </c>
@@ -35907,12 +35907,6 @@
       </c>
       <c r="T569" s="16">
         <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:20">
-      <c r="I571" s="7" t="e">
-        <f>_xlfn.MODE.SNGL(I1:I569)</f>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -35946,6 +35940,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5EDAA94885D37438ECB2B19BB11C497" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fbd510f1c5630446bfdf670e8e70c7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f732e0a-2be0-4fdc-ab49-d5ab1599db08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a888079b46ab10c5f96dd192971d488f" ns2:_="">
     <xsd:import namespace="2f732e0a-2be0-4fdc-ab49-d5ab1599db08"/>
@@ -36083,20 +36083,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EA9544-46F9-4D0C-8B23-39A6BC258684}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63EA9544-46F9-4D0C-8B23-39A6BC258684}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3379B7-B9C7-4BBE-9A34-D602D0B558C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C552E8F-0FC9-4289-A229-536FAE4C40A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C552E8F-0FC9-4289-A229-536FAE4C40A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3379B7-B9C7-4BBE-9A34-D602D0B558C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2f732e0a-2be0-4fdc-ab49-d5ab1599db08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>